--- a/hardware/outputs/bom/bom.xlsx
+++ b/hardware/outputs/bom/bom.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>Source Data From:</t>
   </si>
@@ -91,10 +91,10 @@
     <t>&lt;Parameter ProjectCode not found&gt;</t>
   </si>
   <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>21:15</t>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>14:34</t>
   </si>
   <si>
     <t>Designator</t>
@@ -388,7 +388,7 @@
     <t>5-146280-2</t>
   </si>
   <si>
-    <t>87832-1420</t>
+    <t>TSW-107-05-F-D</t>
   </si>
   <si>
     <t>MMS-110-01-L-SV</t>
@@ -445,6 +445,9 @@
     <t>RMCF0805FT12K0</t>
   </si>
   <si>
+    <t>CRCW08050000Z0EA, UR73V2ATTD47L0F</t>
+  </si>
+  <si>
     <t>1825116-1</t>
   </si>
   <si>
@@ -478,7 +481,7 @@
     <t>SN65HVD232D</t>
   </si>
   <si>
-    <t>LMR10510XMFX/NOPB, [NoParam]</t>
+    <t>LMR10510XMFX/NOPB, AP331AWG-7</t>
   </si>
   <si>
     <t>TL431AIDBZT</t>
@@ -544,7 +547,7 @@
     <t>CONN HEADER TOP 2POS 2.5MM GRN</t>
   </si>
   <si>
-    <t>WURTH ELEKTRONIK   742792608   FERRITE BEAD, 0.1 OHM, 0.5A, 0603</t>
+    <t>WURTH ELEKTRONIK   742792608   FERRITE BEAD, 47 OHM, 0.5A, 0603</t>
   </si>
   <si>
     <t>Header; Breakaway; 0.100 x 0.100 in.; PC Board; Dual; 6; 0.025 in.; 0.12 in.</t>
@@ -604,7 +607,7 @@
     <t>RES 1.5K OHM 1/10W 0.1% 0805</t>
   </si>
   <si>
-    <t>RES 10R OHM 1/10W 1% 0805</t>
+    <t>RES 10R OHM 1/10W 1% 0603</t>
   </si>
   <si>
     <t>RES 12K OHM 1/8W 1% 0805</t>
@@ -1606,11 +1609,11 @@
       </c>
       <c r="E7" s="5">
         <f ca="1">TODAY()</f>
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="F7" s="6">
         <f ca="1">NOW()</f>
-        <v>44333.885948877316</v>
+        <v>44335.607285833335</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1703,11 +1706,11 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
@@ -1731,11 +1734,11 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
@@ -1757,11 +1760,11 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
@@ -1785,11 +1788,11 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
@@ -1813,11 +1816,11 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
@@ -1841,11 +1844,11 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
@@ -1869,11 +1872,11 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
@@ -1897,11 +1900,11 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="s">
@@ -1925,11 +1928,11 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="s">
@@ -1955,14 +1958,14 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>10</v>
@@ -1987,14 +1990,14 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>10</v>
@@ -2019,14 +2022,14 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>10</v>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
@@ -2081,11 +2084,11 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="s">
@@ -2111,14 +2114,14 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>10</v>
@@ -2143,11 +2146,11 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12" t="s">
@@ -2173,14 +2176,14 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
         <v>110</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>10</v>
@@ -2205,7 +2208,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
@@ -2231,7 +2234,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
@@ -2257,7 +2260,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="s">
@@ -2283,7 +2286,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
@@ -2309,14 +2312,14 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>10</v>
@@ -2339,13 +2342,13 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12" t="s">
@@ -2369,13 +2372,13 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12" t="s">
@@ -2399,13 +2402,13 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12" t="s">
@@ -2429,13 +2432,13 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12" t="s">
@@ -2459,13 +2462,13 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12" t="s">
@@ -2489,13 +2492,13 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
@@ -2519,11 +2522,11 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="s">
@@ -2547,11 +2550,11 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12" t="s">
@@ -2575,11 +2578,11 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
@@ -2603,11 +2606,11 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
@@ -2631,11 +2634,11 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
@@ -2659,11 +2662,11 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
@@ -2687,11 +2690,11 @@
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12" t="s">
@@ -2715,11 +2718,11 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
@@ -2743,11 +2746,11 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12" t="s">
@@ -2771,11 +2774,11 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
@@ -2799,11 +2802,11 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="s">
@@ -2827,11 +2830,11 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
@@ -2855,11 +2858,11 @@
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
@@ -2885,11 +2888,11 @@
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
@@ -2915,14 +2918,14 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>10</v>
@@ -2940,14 +2943,16 @@
         <v>8</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="F54" s="11"/>
       <c r="G54" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12" t="s">
@@ -2967,17 +2972,17 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="s">
@@ -2997,17 +3002,17 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12" t="s">
@@ -3027,17 +3032,17 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12" t="s">
@@ -3057,15 +3062,15 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12" t="s">
@@ -3085,17 +3090,17 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12" t="s">
@@ -3115,17 +3120,17 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12" t="s">
@@ -3145,17 +3150,17 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
@@ -3175,17 +3180,17 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12" t="s">
@@ -3205,17 +3210,17 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12" t="s">
@@ -3235,17 +3240,17 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12" t="s">
@@ -3265,17 +3270,17 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12" t="s">
@@ -3295,15 +3300,15 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12" t="s">
@@ -3323,17 +3328,17 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12" t="s">
@@ -3355,18 +3360,18 @@
         <v>92</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>10</v>
@@ -3387,15 +3392,15 @@
         <v>93</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12" t="s">
@@ -3417,18 +3422,18 @@
         <v>94</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>10</v>
